--- a/Assets/Resources/EffectData.xlsx
+++ b/Assets/Resources/EffectData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tes\teto\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tetoRpg\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{060A08EA-0F85-4E8C-B70B-0E0D75A36080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D609968E-BAA9-4424-99F5-2BD4643107E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7935" yWindow="1485" windowWidth="16620" windowHeight="12945" xr2:uid="{239A8C41-FD94-471C-828A-64ADA4D4D70F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{239A8C41-FD94-471C-828A-64ADA4D4D70F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
